--- a/schedules/schedule_subjects.xlsx
+++ b/schedules/schedule_subjects.xlsx
@@ -1047,7 +1047,7 @@
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="T6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U6" s="15" t="inlineStr">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="P7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q7" s="15" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="D12" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" s="15" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="D13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E13" s="15" t="inlineStr">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I13" s="15" t="inlineStr">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="P13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q13" s="15" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="D16" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E16" s="13" t="inlineStr">
@@ -2029,7 +2029,7 @@
       </c>
       <c r="P16" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q16" s="13" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="D17" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E17" s="13" t="inlineStr">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="L17" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M17" s="13" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="T18" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U18" s="13" t="inlineStr">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="P20" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q20" s="15" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="T20" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U20" s="15" t="inlineStr">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="D23" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E23" s="13" t="inlineStr">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="T24" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U24" s="13" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="P27" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q27" s="15" t="inlineStr">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="D28" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E28" s="13" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="D30" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E30" s="17" t="inlineStr">
@@ -3282,7 +3282,7 @@
       </c>
       <c r="T4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U4" s="13" t="inlineStr">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="T5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U5" s="15" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="P7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q7" s="15" t="inlineStr">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="H8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" s="13" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="D9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="15" t="inlineStr">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="T9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="15" t="inlineStr">
@@ -3560,7 +3560,7 @@
       </c>
       <c r="T10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="13" t="inlineStr">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="T12" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U12" s="20" t="inlineStr">
@@ -3942,7 +3942,7 @@
       </c>
       <c r="H5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I5" s="15" t="inlineStr">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="L5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M5" s="15" t="inlineStr">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -4032,7 +4032,7 @@
       </c>
       <c r="L6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M6" s="13" t="inlineStr">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="T6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U6" s="13" t="inlineStr">
@@ -4082,7 +4082,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -4100,7 +4100,7 @@
       </c>
       <c r="H7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="15" t="inlineStr">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="L7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M7" s="15" t="inlineStr">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -4234,7 +4234,7 @@
       </c>
       <c r="L9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M9" s="15" t="inlineStr">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="P9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q9" s="15" t="inlineStr">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="D10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" s="13" t="inlineStr">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="L10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M10" s="13" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="D11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="15" t="inlineStr">
@@ -4414,7 +4414,7 @@
       </c>
       <c r="D12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" s="13" t="inlineStr">
@@ -4440,7 +4440,7 @@
       </c>
       <c r="P12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q12" s="13" t="inlineStr">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="T13" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U13" s="17" t="inlineStr">
@@ -4752,7 +4752,7 @@
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="P4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q4" s="13" t="inlineStr">
@@ -4818,7 +4818,7 @@
       </c>
       <c r="P5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q5" s="15" t="inlineStr">
@@ -4862,7 +4862,7 @@
       </c>
       <c r="P6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q6" s="13" t="inlineStr">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="H7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="15" t="inlineStr">
@@ -4920,7 +4920,7 @@
       </c>
       <c r="P7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q7" s="15" t="inlineStr">
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" s="13" t="inlineStr">
@@ -4978,7 +4978,7 @@
       </c>
       <c r="P8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q8" s="13" t="inlineStr">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" s="15" t="inlineStr">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="P9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q9" s="15" t="inlineStr">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="H10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I10" s="13" t="inlineStr">
@@ -5094,7 +5094,7 @@
       </c>
       <c r="P10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q10" s="13" t="inlineStr">
@@ -5130,7 +5130,7 @@
       </c>
       <c r="H11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I11" s="17" t="inlineStr">
@@ -6842,7 +6842,7 @@
       </c>
       <c r="H9" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" s="17" t="inlineStr">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="T9" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="17" t="inlineStr">
@@ -7448,7 +7448,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="13" t="inlineStr">
@@ -7466,7 +7466,7 @@
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -7484,7 +7484,7 @@
       </c>
       <c r="L4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M4" s="13" t="inlineStr">
@@ -7532,7 +7532,7 @@
       </c>
       <c r="P5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q5" s="15" t="inlineStr">
@@ -7602,7 +7602,7 @@
       </c>
       <c r="L7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M7" s="15" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="T7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U7" s="15" t="inlineStr">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -7704,7 +7704,7 @@
       </c>
       <c r="L9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M9" s="15" t="inlineStr">
@@ -7726,7 +7726,7 @@
       </c>
       <c r="T9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="15" t="inlineStr">
@@ -7762,7 +7762,7 @@
       </c>
       <c r="L10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M10" s="13" t="inlineStr">
@@ -7780,7 +7780,7 @@
       </c>
       <c r="P10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q10" s="13" t="inlineStr">
@@ -7798,7 +7798,7 @@
       </c>
       <c r="T10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="13" t="inlineStr">
@@ -7834,7 +7834,7 @@
       </c>
       <c r="L11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M11" s="17" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="P11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q11" s="17" t="inlineStr">
@@ -8132,7 +8132,7 @@
       </c>
       <c r="T4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U4" s="13" t="inlineStr">
@@ -8234,7 +8234,7 @@
       </c>
       <c r="T6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U6" s="13" t="inlineStr">
@@ -8266,7 +8266,7 @@
       </c>
       <c r="H7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="15" t="inlineStr">
@@ -8284,7 +8284,7 @@
       </c>
       <c r="L7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M7" s="15" t="inlineStr">
@@ -8302,7 +8302,7 @@
       </c>
       <c r="P7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q7" s="15" t="inlineStr">
@@ -8342,7 +8342,7 @@
       </c>
       <c r="L8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M8" s="13" t="inlineStr">
@@ -8360,7 +8360,7 @@
       </c>
       <c r="P8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q8" s="13" t="inlineStr">
@@ -8430,7 +8430,7 @@
       </c>
       <c r="L10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M10" s="13" t="inlineStr">
@@ -8448,7 +8448,7 @@
       </c>
       <c r="P10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q10" s="13" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="H11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I11" s="17" t="inlineStr">
@@ -8502,7 +8502,7 @@
       </c>
       <c r="L11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M11" s="17" t="inlineStr">
@@ -9134,7 +9134,7 @@
       </c>
       <c r="P4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q4" s="13" t="inlineStr">
@@ -9172,7 +9172,7 @@
       </c>
       <c r="L5" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M5" s="13" t="inlineStr">
@@ -9216,7 +9216,7 @@
       </c>
       <c r="L6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M6" s="15" t="inlineStr">
@@ -9234,7 +9234,7 @@
       </c>
       <c r="P6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q6" s="15" t="inlineStr">
@@ -9270,7 +9270,7 @@
       </c>
       <c r="H7" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="13" t="inlineStr">
@@ -9310,7 +9310,7 @@
       </c>
       <c r="T7" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U7" s="13" t="inlineStr">
@@ -9338,7 +9338,7 @@
       </c>
       <c r="D8" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="15" t="inlineStr">
@@ -9368,7 +9368,7 @@
       </c>
       <c r="T8" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="15" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="D9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="13" t="inlineStr">
@@ -9414,7 +9414,7 @@
       </c>
       <c r="H9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" s="13" t="inlineStr">
@@ -9440,7 +9440,7 @@
       </c>
       <c r="T9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="13" t="inlineStr">
@@ -9472,7 +9472,7 @@
       </c>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I10" s="15" t="inlineStr">
@@ -9490,7 +9490,7 @@
       </c>
       <c r="L10" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M10" s="15" t="inlineStr">
@@ -9508,7 +9508,7 @@
       </c>
       <c r="P10" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q10" s="15" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="D11" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="13" t="inlineStr">
@@ -9580,7 +9580,7 @@
       </c>
       <c r="P11" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q11" s="13" t="inlineStr">
@@ -9612,7 +9612,7 @@
       </c>
       <c r="D12" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" s="15" t="inlineStr">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="D13" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E13" s="13" t="inlineStr">
@@ -9692,7 +9692,7 @@
       </c>
       <c r="L13" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M13" s="13" t="inlineStr">
@@ -9710,7 +9710,7 @@
       </c>
       <c r="P13" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q13" s="13" t="inlineStr">
@@ -9750,7 +9750,7 @@
       </c>
       <c r="L14" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M14" s="17" t="inlineStr">
@@ -10087,7 +10087,7 @@
       </c>
       <c r="L6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M6" s="13" t="inlineStr">
@@ -10123,7 +10123,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -10171,7 +10171,7 @@
       </c>
       <c r="H8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" s="13" t="inlineStr">
@@ -10249,7 +10249,7 @@
       </c>
       <c r="L10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M10" s="13" t="inlineStr">
@@ -10285,7 +10285,7 @@
       </c>
       <c r="D11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="15" t="inlineStr">
@@ -10307,7 +10307,7 @@
       </c>
       <c r="L11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M11" s="15" t="inlineStr">
@@ -10325,7 +10325,7 @@
       </c>
       <c r="P11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q11" s="15" t="inlineStr">
@@ -10365,7 +10365,7 @@
       </c>
       <c r="L12" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M12" s="20" t="inlineStr">
@@ -10951,7 +10951,7 @@
       </c>
       <c r="P4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q4" s="13" t="inlineStr">
@@ -10969,7 +10969,7 @@
       </c>
       <c r="T4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U4" s="13" t="inlineStr">
@@ -11011,7 +11011,7 @@
       </c>
       <c r="T5" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U5" s="13" t="inlineStr">
@@ -11043,7 +11043,7 @@
       </c>
       <c r="H6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" s="15" t="inlineStr">
@@ -11065,7 +11065,7 @@
       </c>
       <c r="P6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q6" s="15" t="inlineStr">
@@ -11107,7 +11107,7 @@
       </c>
       <c r="P7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q7" s="15" t="inlineStr">
@@ -11139,7 +11139,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -11165,7 +11165,7 @@
       </c>
       <c r="P8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q8" s="13" t="inlineStr">
@@ -11183,7 +11183,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="D9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="13" t="inlineStr">
@@ -11239,7 +11239,7 @@
       </c>
       <c r="T9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="13" t="inlineStr">
@@ -11281,7 +11281,7 @@
       </c>
       <c r="T10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="13" t="inlineStr">
@@ -11325,7 +11325,7 @@
       </c>
       <c r="T11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U11" s="15" t="inlineStr">
@@ -11367,7 +11367,7 @@
       </c>
       <c r="T12" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U12" s="15" t="inlineStr">
@@ -11395,7 +11395,7 @@
       </c>
       <c r="D13" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E13" s="13" t="inlineStr">
@@ -11413,7 +11413,7 @@
       </c>
       <c r="H13" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I13" s="13" t="inlineStr">
@@ -11435,7 +11435,7 @@
       </c>
       <c r="P13" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q13" s="13" t="inlineStr">
@@ -11465,7 +11465,7 @@
       </c>
       <c r="D14" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" s="13" t="inlineStr">
@@ -11513,7 +11513,7 @@
       </c>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I15" s="15" t="inlineStr">
@@ -11531,7 +11531,7 @@
       </c>
       <c r="L15" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M15" s="15" t="inlineStr">
@@ -11553,7 +11553,7 @@
       </c>
       <c r="T15" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U15" s="15" t="inlineStr">
@@ -11587,7 +11587,7 @@
       </c>
       <c r="L16" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M16" s="15" t="inlineStr">
@@ -11623,7 +11623,7 @@
       </c>
       <c r="D17" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E17" s="13" t="inlineStr">
@@ -11667,7 +11667,7 @@
       </c>
       <c r="D18" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" s="15" t="inlineStr">
@@ -11685,7 +11685,7 @@
       </c>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I18" s="15" t="inlineStr">
@@ -11725,7 +11725,7 @@
       </c>
       <c r="D19" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" s="20" t="inlineStr">
@@ -11743,7 +11743,7 @@
       </c>
       <c r="H19" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I19" s="20" t="inlineStr">
@@ -12611,7 +12611,7 @@
       </c>
       <c r="P13" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q13" s="17" t="inlineStr">
@@ -12875,7 +12875,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="13" t="inlineStr">
@@ -12893,7 +12893,7 @@
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -12911,7 +12911,7 @@
       </c>
       <c r="L4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M4" s="13" t="inlineStr">
@@ -12929,7 +12929,7 @@
       </c>
       <c r="P4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q4" s="13" t="inlineStr">
@@ -12947,7 +12947,7 @@
       </c>
       <c r="T4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U4" s="13" t="inlineStr">
@@ -12973,7 +12973,7 @@
       </c>
       <c r="D5" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" s="13" t="inlineStr">
@@ -12995,7 +12995,7 @@
       </c>
       <c r="L5" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M5" s="13" t="inlineStr">
@@ -13013,7 +13013,7 @@
       </c>
       <c r="P5" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q5" s="13" t="inlineStr">
@@ -13047,7 +13047,7 @@
       </c>
       <c r="D6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="15" t="inlineStr">
@@ -13065,7 +13065,7 @@
       </c>
       <c r="H6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" s="15" t="inlineStr">
@@ -13083,7 +13083,7 @@
       </c>
       <c r="L6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M6" s="15" t="inlineStr">
@@ -13101,7 +13101,7 @@
       </c>
       <c r="P6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q6" s="15" t="inlineStr">
@@ -13119,7 +13119,7 @@
       </c>
       <c r="T6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U6" s="15" t="inlineStr">
@@ -13145,7 +13145,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -13163,7 +13163,7 @@
       </c>
       <c r="H7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="15" t="inlineStr">
@@ -13181,7 +13181,7 @@
       </c>
       <c r="L7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M7" s="15" t="inlineStr">
@@ -13199,7 +13199,7 @@
       </c>
       <c r="P7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q7" s="15" t="inlineStr">
@@ -13261,7 +13261,7 @@
       </c>
       <c r="T8" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="15" t="inlineStr">
@@ -13289,7 +13289,7 @@
       </c>
       <c r="D9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="13" t="inlineStr">
@@ -13307,7 +13307,7 @@
       </c>
       <c r="H9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" s="13" t="inlineStr">
@@ -13325,7 +13325,7 @@
       </c>
       <c r="L9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M9" s="13" t="inlineStr">
@@ -13343,7 +13343,7 @@
       </c>
       <c r="P9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q9" s="13" t="inlineStr">
@@ -13361,7 +13361,7 @@
       </c>
       <c r="T9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="13" t="inlineStr">
@@ -13395,7 +13395,7 @@
       </c>
       <c r="L10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M10" s="13" t="inlineStr">
@@ -13413,7 +13413,7 @@
       </c>
       <c r="P10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q10" s="13" t="inlineStr">
@@ -13431,7 +13431,7 @@
       </c>
       <c r="T10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="13" t="inlineStr">
@@ -13459,7 +13459,7 @@
       </c>
       <c r="D11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="15" t="inlineStr">
@@ -13477,7 +13477,7 @@
       </c>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I11" s="15" t="inlineStr">
@@ -13495,7 +13495,7 @@
       </c>
       <c r="L11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M11" s="15" t="inlineStr">
@@ -13513,7 +13513,7 @@
       </c>
       <c r="P11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q11" s="15" t="inlineStr">
@@ -13531,7 +13531,7 @@
       </c>
       <c r="T11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U11" s="15" t="inlineStr">
@@ -13557,7 +13557,7 @@
       </c>
       <c r="D12" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" s="15" t="inlineStr">
@@ -13575,7 +13575,7 @@
       </c>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I12" s="15" t="inlineStr">
@@ -13615,7 +13615,7 @@
       </c>
       <c r="T12" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U12" s="15" t="inlineStr">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="P13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q13" s="15" t="inlineStr">
@@ -13685,7 +13685,7 @@
       </c>
       <c r="D14" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" s="13" t="inlineStr">
@@ -13703,7 +13703,7 @@
       </c>
       <c r="H14" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I14" s="13" t="inlineStr">
@@ -13721,7 +13721,7 @@
       </c>
       <c r="L14" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M14" s="13" t="inlineStr">
@@ -13739,7 +13739,7 @@
       </c>
       <c r="P14" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q14" s="13" t="inlineStr">
@@ -13757,7 +13757,7 @@
       </c>
       <c r="T14" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U14" s="13" t="inlineStr">
@@ -13787,7 +13787,7 @@
       </c>
       <c r="H15" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I15" s="13" t="inlineStr">
@@ -13809,7 +13809,7 @@
       </c>
       <c r="P15" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q15" s="13" t="inlineStr">
@@ -13841,7 +13841,7 @@
       </c>
       <c r="D16" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E16" s="15" t="inlineStr">
@@ -13859,7 +13859,7 @@
       </c>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I16" s="15" t="inlineStr">
@@ -13877,7 +13877,7 @@
       </c>
       <c r="L16" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M16" s="15" t="inlineStr">
@@ -13895,7 +13895,7 @@
       </c>
       <c r="P16" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q16" s="15" t="inlineStr">
@@ -13913,7 +13913,7 @@
       </c>
       <c r="T16" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U16" s="15" t="inlineStr">
@@ -13939,7 +13939,7 @@
       </c>
       <c r="D17" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E17" s="15" t="inlineStr">
@@ -13957,7 +13957,7 @@
       </c>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I17" s="15" t="inlineStr">
@@ -13979,7 +13979,7 @@
       </c>
       <c r="P17" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q17" s="15" t="inlineStr">
@@ -14011,7 +14011,7 @@
       </c>
       <c r="D18" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" s="13" t="inlineStr">
@@ -14029,7 +14029,7 @@
       </c>
       <c r="H18" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I18" s="13" t="inlineStr">
@@ -14047,7 +14047,7 @@
       </c>
       <c r="L18" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M18" s="13" t="inlineStr">
@@ -14065,7 +14065,7 @@
       </c>
       <c r="P18" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q18" s="13" t="inlineStr">
@@ -14083,7 +14083,7 @@
       </c>
       <c r="T18" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U18" s="13" t="inlineStr">
@@ -14109,7 +14109,7 @@
       </c>
       <c r="D19" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" s="13" t="inlineStr">
@@ -14151,7 +14151,7 @@
       </c>
       <c r="D20" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" s="13" t="inlineStr">
@@ -14195,7 +14195,7 @@
       </c>
       <c r="D21" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" s="15" t="inlineStr">
@@ -14213,7 +14213,7 @@
       </c>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
@@ -14257,7 +14257,7 @@
       </c>
       <c r="H22" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I22" s="13" t="inlineStr">
@@ -14303,7 +14303,7 @@
       </c>
       <c r="H23" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I23" s="17" t="inlineStr">
@@ -14784,7 +14784,7 @@
       </c>
       <c r="L9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M9" s="15" t="inlineStr">
@@ -14820,7 +14820,7 @@
       </c>
       <c r="D10" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" s="20" t="inlineStr">
@@ -15450,7 +15450,7 @@
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -15506,7 +15506,7 @@
       </c>
       <c r="T5" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U5" s="17" t="inlineStr">
@@ -15770,7 +15770,7 @@
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -15810,7 +15810,7 @@
       </c>
       <c r="D5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" s="15" t="inlineStr">
@@ -15836,7 +15836,7 @@
       </c>
       <c r="P5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q5" s="15" t="inlineStr">
@@ -15868,7 +15868,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -15912,7 +15912,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -15938,7 +15938,7 @@
       </c>
       <c r="P7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q7" s="15" t="inlineStr">
@@ -15970,7 +15970,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -15992,7 +15992,7 @@
       </c>
       <c r="L8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M8" s="13" t="inlineStr">
@@ -16032,7 +16032,7 @@
       </c>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" s="15" t="inlineStr">
@@ -16050,7 +16050,7 @@
       </c>
       <c r="L9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M9" s="15" t="inlineStr">
@@ -16086,7 +16086,7 @@
       </c>
       <c r="D10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" s="13" t="inlineStr">
@@ -16108,7 +16108,7 @@
       </c>
       <c r="L10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M10" s="13" t="inlineStr">
@@ -16156,7 +16156,7 @@
       </c>
       <c r="P11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q11" s="15" t="inlineStr">
@@ -16198,7 +16198,7 @@
       </c>
       <c r="P12" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q12" s="15" t="inlineStr">
@@ -16242,7 +16242,7 @@
       </c>
       <c r="P13" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q13" s="20" t="inlineStr">
@@ -16813,7 +16813,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="13" t="inlineStr">
@@ -16835,7 +16835,7 @@
       </c>
       <c r="L4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M4" s="13" t="inlineStr">
@@ -16853,7 +16853,7 @@
       </c>
       <c r="P4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q4" s="13" t="inlineStr">
@@ -16871,7 +16871,7 @@
       </c>
       <c r="T4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U4" s="13" t="inlineStr">
@@ -16909,7 +16909,7 @@
       </c>
       <c r="P5" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q5" s="13" t="inlineStr">
@@ -16927,7 +16927,7 @@
       </c>
       <c r="T5" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U5" s="13" t="inlineStr">
@@ -16955,7 +16955,7 @@
       </c>
       <c r="D6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="15" t="inlineStr">
@@ -16973,7 +16973,7 @@
       </c>
       <c r="H6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" s="15" t="inlineStr">
@@ -16991,7 +16991,7 @@
       </c>
       <c r="L6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M6" s="15" t="inlineStr">
@@ -17009,7 +17009,7 @@
       </c>
       <c r="P6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q6" s="15" t="inlineStr">
@@ -17027,7 +17027,7 @@
       </c>
       <c r="T6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U6" s="15" t="inlineStr">
@@ -17053,7 +17053,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -17071,7 +17071,7 @@
       </c>
       <c r="H7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="15" t="inlineStr">
@@ -17091,7 +17091,7 @@
       </c>
       <c r="L7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M7" s="15" t="inlineStr">
@@ -17113,7 +17113,7 @@
       </c>
       <c r="T7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U7" s="15" t="inlineStr">
@@ -17141,7 +17141,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -17159,7 +17159,7 @@
       </c>
       <c r="H8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" s="13" t="inlineStr">
@@ -17177,7 +17177,7 @@
       </c>
       <c r="L8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M8" s="13" t="inlineStr">
@@ -17195,7 +17195,7 @@
       </c>
       <c r="P8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q8" s="13" t="inlineStr">
@@ -17213,7 +17213,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -17243,7 +17243,7 @@
       </c>
       <c r="H9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" s="13" t="inlineStr">
@@ -17267,7 +17267,7 @@
       </c>
       <c r="P9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q9" s="13" t="inlineStr">
@@ -17323,7 +17323,7 @@
       </c>
       <c r="P10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q10" s="13" t="inlineStr">
@@ -17341,7 +17341,7 @@
       </c>
       <c r="T10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="13" t="inlineStr">
@@ -17369,7 +17369,7 @@
       </c>
       <c r="D11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="15" t="inlineStr">
@@ -17387,7 +17387,7 @@
       </c>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I11" s="15" t="inlineStr">
@@ -17405,7 +17405,7 @@
       </c>
       <c r="L11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M11" s="15" t="inlineStr">
@@ -17423,7 +17423,7 @@
       </c>
       <c r="P11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q11" s="15" t="inlineStr">
@@ -17441,7 +17441,7 @@
       </c>
       <c r="T11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U11" s="15" t="inlineStr">
@@ -17467,7 +17467,7 @@
       </c>
       <c r="D12" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" s="15" t="inlineStr">
@@ -17485,7 +17485,7 @@
       </c>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I12" s="15" t="inlineStr">
@@ -17503,7 +17503,7 @@
       </c>
       <c r="L12" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M12" s="15" t="inlineStr">
@@ -17521,7 +17521,7 @@
       </c>
       <c r="P12" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q12" s="15" t="inlineStr">
@@ -17539,7 +17539,7 @@
       </c>
       <c r="T12" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U12" s="15" t="inlineStr">
@@ -17569,7 +17569,7 @@
       </c>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I13" s="15" t="inlineStr">
@@ -17609,7 +17609,7 @@
       </c>
       <c r="D14" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" s="13" t="inlineStr">
@@ -17627,7 +17627,7 @@
       </c>
       <c r="H14" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I14" s="13" t="inlineStr">
@@ -17645,7 +17645,7 @@
       </c>
       <c r="L14" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M14" s="13" t="inlineStr">
@@ -17663,7 +17663,7 @@
       </c>
       <c r="P14" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q14" s="13" t="inlineStr">
@@ -17681,7 +17681,7 @@
       </c>
       <c r="T14" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U14" s="13" t="inlineStr">
@@ -17715,7 +17715,7 @@
       </c>
       <c r="L15" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M15" s="13" t="inlineStr">
@@ -17733,7 +17733,7 @@
       </c>
       <c r="P15" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q15" s="13" t="inlineStr">
@@ -17751,7 +17751,7 @@
       </c>
       <c r="T15" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U15" s="13" t="inlineStr">
@@ -17779,7 +17779,7 @@
       </c>
       <c r="D16" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E16" s="15" t="inlineStr">
@@ -17801,7 +17801,7 @@
       </c>
       <c r="L16" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M16" s="15" t="inlineStr">
@@ -17819,7 +17819,7 @@
       </c>
       <c r="P16" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q16" s="15" t="inlineStr">
@@ -17837,7 +17837,7 @@
       </c>
       <c r="T16" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U16" s="15" t="inlineStr">
@@ -17863,7 +17863,7 @@
       </c>
       <c r="D17" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E17" s="15" t="inlineStr">
@@ -17889,7 +17889,7 @@
       </c>
       <c r="P17" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q17" s="15" t="inlineStr">
@@ -17963,7 +17963,7 @@
       </c>
       <c r="D19" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" s="13" t="inlineStr">
@@ -17981,7 +17981,7 @@
       </c>
       <c r="H19" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I19" s="13" t="inlineStr">
@@ -18007,7 +18007,7 @@
       </c>
       <c r="T19" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U19" s="13" t="inlineStr">
@@ -18049,7 +18049,7 @@
       </c>
       <c r="T20" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U20" s="13" t="inlineStr">
@@ -18077,7 +18077,7 @@
       </c>
       <c r="D21" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" s="17" t="inlineStr">
@@ -18099,7 +18099,7 @@
       </c>
       <c r="L21" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M21" s="17" t="inlineStr">
@@ -18121,7 +18121,7 @@
       </c>
       <c r="T21" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U21" s="17" t="inlineStr">
@@ -19482,7 +19482,7 @@
       </c>
       <c r="P5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q5" s="15" t="inlineStr">
@@ -19932,7 +19932,7 @@
       </c>
       <c r="L6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M6" s="13" t="inlineStr">
@@ -20062,7 +20062,7 @@
       </c>
       <c r="H10" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I10" s="20" t="inlineStr">
@@ -20908,7 +20908,7 @@
       </c>
       <c r="L6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M6" s="13" t="inlineStr">
@@ -21054,7 +21054,7 @@
       </c>
       <c r="H10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I10" s="13" t="inlineStr">
@@ -21076,7 +21076,7 @@
       </c>
       <c r="P10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q10" s="13" t="inlineStr">
@@ -21120,7 +21120,7 @@
       </c>
       <c r="P11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q11" s="17" t="inlineStr">
@@ -23614,7 +23614,7 @@
       </c>
       <c r="T9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="15" t="inlineStr">
@@ -23672,7 +23672,7 @@
       </c>
       <c r="T10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="13" t="inlineStr">
@@ -23976,7 +23976,7 @@
       </c>
       <c r="D4" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="20" t="inlineStr">
@@ -24820,7 +24820,7 @@
       </c>
       <c r="P7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q7" s="15" t="inlineStr">
@@ -24860,7 +24860,7 @@
       </c>
       <c r="L8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M8" s="13" t="inlineStr">
@@ -24878,7 +24878,7 @@
       </c>
       <c r="P8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q8" s="13" t="inlineStr">
@@ -24948,7 +24948,7 @@
       </c>
       <c r="L10" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M10" s="20" t="inlineStr">
@@ -25276,7 +25276,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -25368,7 +25368,7 @@
       </c>
       <c r="H8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" s="13" t="inlineStr">
@@ -25386,7 +25386,7 @@
       </c>
       <c r="L8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M8" s="13" t="inlineStr">
@@ -25780,7 +25780,7 @@
       </c>
       <c r="L6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M6" s="13" t="inlineStr">
@@ -25824,7 +25824,7 @@
       </c>
       <c r="L7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M7" s="15" t="inlineStr">
@@ -25846,7 +25846,7 @@
       </c>
       <c r="T7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U7" s="15" t="inlineStr">
@@ -25886,7 +25886,7 @@
       </c>
       <c r="P8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q8" s="13" t="inlineStr">
@@ -25956,7 +25956,7 @@
       </c>
       <c r="L10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M10" s="13" t="inlineStr">
@@ -26008,7 +26008,7 @@
       </c>
       <c r="T11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U11" s="17" t="inlineStr">
@@ -26836,7 +26836,7 @@
       </c>
       <c r="L7" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M7" s="17" t="inlineStr">
@@ -39469,7 +39469,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="13" t="inlineStr">
@@ -39487,7 +39487,7 @@
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -39509,7 +39509,7 @@
       </c>
       <c r="P4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q4" s="13" t="inlineStr">
@@ -39541,7 +39541,7 @@
       </c>
       <c r="D5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" s="15" t="inlineStr">
@@ -39559,7 +39559,7 @@
       </c>
       <c r="H5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I5" s="15" t="inlineStr">
@@ -39581,7 +39581,7 @@
       </c>
       <c r="P5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q5" s="15" t="inlineStr">
@@ -39613,7 +39613,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -39631,7 +39631,7 @@
       </c>
       <c r="H6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" s="13" t="inlineStr">
@@ -39657,7 +39657,7 @@
       </c>
       <c r="T6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U6" s="13" t="inlineStr">
@@ -39689,7 +39689,7 @@
       </c>
       <c r="H7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="15" t="inlineStr">
@@ -39715,7 +39715,7 @@
       </c>
       <c r="T7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U7" s="15" t="inlineStr">
@@ -39751,7 +39751,7 @@
       </c>
       <c r="L8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M8" s="13" t="inlineStr">
@@ -39769,7 +39769,7 @@
       </c>
       <c r="P8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q8" s="13" t="inlineStr">
@@ -39787,7 +39787,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -39825,7 +39825,7 @@
       </c>
       <c r="P9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q9" s="13" t="inlineStr">
@@ -39865,7 +39865,7 @@
       </c>
       <c r="L10" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M10" s="15" t="inlineStr">
@@ -39883,7 +39883,7 @@
       </c>
       <c r="P10" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q10" s="15" t="inlineStr">
@@ -39901,7 +39901,7 @@
       </c>
       <c r="T10" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="15" t="inlineStr">
@@ -39939,7 +39939,7 @@
       </c>
       <c r="P11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q11" s="15" t="inlineStr">
@@ -39975,7 +39975,7 @@
       </c>
       <c r="H12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I12" s="13" t="inlineStr">
@@ -39993,7 +39993,7 @@
       </c>
       <c r="L12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M12" s="13" t="inlineStr">
@@ -40011,7 +40011,7 @@
       </c>
       <c r="P12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q12" s="13" t="inlineStr">
@@ -40029,7 +40029,7 @@
       </c>
       <c r="T12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U12" s="13" t="inlineStr">
@@ -40067,7 +40067,7 @@
       </c>
       <c r="P13" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q13" s="13" t="inlineStr">
@@ -40085,7 +40085,7 @@
       </c>
       <c r="T13" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U13" s="13" t="inlineStr">
@@ -40123,7 +40123,7 @@
       </c>
       <c r="P14" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q14" s="13" t="inlineStr">
@@ -40159,7 +40159,7 @@
       </c>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I15" s="15" t="inlineStr">
@@ -40177,7 +40177,7 @@
       </c>
       <c r="L15" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M15" s="15" t="inlineStr">
@@ -40195,7 +40195,7 @@
       </c>
       <c r="P15" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q15" s="15" t="inlineStr">
@@ -40213,7 +40213,7 @@
       </c>
       <c r="T15" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U15" s="15" t="inlineStr">
@@ -40251,7 +40251,7 @@
       </c>
       <c r="P16" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q16" s="15" t="inlineStr">
@@ -40269,7 +40269,7 @@
       </c>
       <c r="T16" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U16" s="15" t="inlineStr">
@@ -40311,7 +40311,7 @@
       </c>
       <c r="T17" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U17" s="15" t="inlineStr">
@@ -40353,7 +40353,7 @@
       </c>
       <c r="T18" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U18" s="15" t="inlineStr">
@@ -40385,7 +40385,7 @@
       </c>
       <c r="H19" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I19" s="13" t="inlineStr">
@@ -40403,7 +40403,7 @@
       </c>
       <c r="L19" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M19" s="13" t="inlineStr">
@@ -40421,7 +40421,7 @@
       </c>
       <c r="P19" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q19" s="13" t="inlineStr">
@@ -40439,7 +40439,7 @@
       </c>
       <c r="T19" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U19" s="13" t="inlineStr">
@@ -40481,7 +40481,7 @@
       </c>
       <c r="T20" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U20" s="20" t="inlineStr">
@@ -41164,7 +41164,7 @@
       </c>
       <c r="L4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M4" s="13" t="inlineStr">
@@ -41208,7 +41208,7 @@
       </c>
       <c r="L5" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M5" s="17" t="inlineStr">
@@ -42230,7 +42230,7 @@
       </c>
       <c r="H8" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" s="20" t="inlineStr">
@@ -42502,7 +42502,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="13" t="inlineStr">
@@ -42764,7 +42764,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -42872,7 +42872,7 @@
       </c>
       <c r="D8" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="15" t="inlineStr">
@@ -42892,7 +42892,7 @@
       </c>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" s="15" t="inlineStr">
@@ -43086,7 +43086,7 @@
       </c>
       <c r="D11" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="13" t="inlineStr">
@@ -43106,7 +43106,7 @@
       </c>
       <c r="H11" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I11" s="13" t="inlineStr">
@@ -43254,7 +43254,7 @@
       </c>
       <c r="P12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q12" s="13" t="inlineStr">
@@ -43368,7 +43368,7 @@
       </c>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I14" s="15" t="inlineStr">
@@ -43702,7 +43702,7 @@
       </c>
       <c r="D18" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" s="13" t="inlineStr">
@@ -43782,7 +43782,7 @@
       </c>
       <c r="T18" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U18" s="13" t="inlineStr">
@@ -43834,7 +43834,7 @@
       </c>
       <c r="L19" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M19" s="13" t="inlineStr">
@@ -43968,7 +43968,7 @@
       </c>
       <c r="T20" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U20" s="15" t="inlineStr">
@@ -44036,7 +44036,7 @@
       </c>
       <c r="L21" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M21" s="15" t="inlineStr">
@@ -44124,7 +44124,7 @@
       </c>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I22" s="15" t="inlineStr">
@@ -44674,7 +44674,7 @@
       </c>
       <c r="D29" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E29" s="13" t="inlineStr">
@@ -45103,7 +45103,7 @@
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -45121,7 +45121,7 @@
       </c>
       <c r="L4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M4" s="13" t="inlineStr">
@@ -45173,7 +45173,7 @@
       </c>
       <c r="T5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U5" s="15" t="inlineStr">
@@ -45277,7 +45277,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -45321,7 +45321,7 @@
       </c>
       <c r="T9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="15" t="inlineStr">
@@ -45365,7 +45365,7 @@
       </c>
       <c r="T10" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="20" t="inlineStr">
@@ -45895,7 +45895,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -46049,7 +46049,7 @@
       </c>
       <c r="P10" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q10" s="15" t="inlineStr">
@@ -46067,7 +46067,7 @@
       </c>
       <c r="T10" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="15" t="inlineStr">
@@ -46105,7 +46105,7 @@
       </c>
       <c r="P11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q11" s="15" t="inlineStr">
@@ -46123,7 +46123,7 @@
       </c>
       <c r="T11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U11" s="15" t="inlineStr">
@@ -46151,7 +46151,7 @@
       </c>
       <c r="D12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" s="13" t="inlineStr">
@@ -46299,7 +46299,7 @@
       </c>
       <c r="H14" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I14" s="13" t="inlineStr">
@@ -46321,7 +46321,7 @@
       </c>
       <c r="P14" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q14" s="13" t="inlineStr">
@@ -46491,7 +46491,7 @@
       </c>
       <c r="H19" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I19" s="17" t="inlineStr">
@@ -46991,7 +46991,7 @@
       </c>
       <c r="P11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q11" s="15" t="inlineStr">
@@ -47035,7 +47035,7 @@
       </c>
       <c r="P12" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q12" s="20" t="inlineStr">
@@ -47303,7 +47303,7 @@
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -47325,7 +47325,7 @@
       </c>
       <c r="P4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q4" s="13" t="inlineStr">
@@ -47361,7 +47361,7 @@
       </c>
       <c r="H5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I5" s="15" t="inlineStr">
@@ -47401,7 +47401,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -47419,7 +47419,7 @@
       </c>
       <c r="H6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" s="13" t="inlineStr">
@@ -47441,7 +47441,7 @@
       </c>
       <c r="P6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q6" s="13" t="inlineStr">
@@ -47473,7 +47473,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -47503,7 +47503,7 @@
       </c>
       <c r="T7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U7" s="15" t="inlineStr">
@@ -47547,7 +47547,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -47589,7 +47589,7 @@
       </c>
       <c r="T9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="13" t="inlineStr">
@@ -47617,7 +47617,7 @@
       </c>
       <c r="D10" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" s="15" t="inlineStr">
@@ -47659,7 +47659,7 @@
       </c>
       <c r="D11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="15" t="inlineStr">
@@ -47711,7 +47711,7 @@
       </c>
       <c r="L12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M12" s="13" t="inlineStr">
@@ -47729,7 +47729,7 @@
       </c>
       <c r="P12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q12" s="13" t="inlineStr">
@@ -47761,7 +47761,7 @@
       </c>
       <c r="D13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E13" s="15" t="inlineStr">
@@ -47779,7 +47779,7 @@
       </c>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I13" s="15" t="inlineStr">
@@ -47801,7 +47801,7 @@
       </c>
       <c r="P13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q13" s="15" t="inlineStr">
@@ -47831,7 +47831,7 @@
       </c>
       <c r="D14" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" s="17" t="inlineStr">
@@ -48700,7 +48700,7 @@
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -48746,7 +48746,7 @@
       </c>
       <c r="H5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I5" s="15" t="inlineStr">
@@ -48792,7 +48792,7 @@
       </c>
       <c r="H6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" s="13" t="inlineStr">
@@ -48880,7 +48880,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -48926,7 +48926,7 @@
       </c>
       <c r="T9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U9" s="15" t="inlineStr">
@@ -48972,7 +48972,7 @@
       </c>
       <c r="T10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="13" t="inlineStr">
@@ -49018,7 +49018,7 @@
       </c>
       <c r="T11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U11" s="17" t="inlineStr">
@@ -49406,7 +49406,7 @@
       </c>
       <c r="L7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M7" s="15" t="inlineStr">
@@ -49756,7 +49756,7 @@
       </c>
       <c r="L5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M5" s="15" t="inlineStr">
@@ -49796,7 +49796,7 @@
       </c>
       <c r="H6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" s="13" t="inlineStr">
@@ -49818,7 +49818,7 @@
       </c>
       <c r="P6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q6" s="13" t="inlineStr">
@@ -49850,7 +49850,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -49868,7 +49868,7 @@
       </c>
       <c r="H7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" s="15" t="inlineStr">
@@ -49908,7 +49908,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -49938,7 +49938,7 @@
       </c>
       <c r="T8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" s="13" t="inlineStr">
@@ -49966,7 +49966,7 @@
       </c>
       <c r="D9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="15" t="inlineStr">
@@ -50026,7 +50026,7 @@
       </c>
       <c r="T10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U10" s="13" t="inlineStr">
@@ -50070,7 +50070,7 @@
       </c>
       <c r="T11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U11" s="17" t="inlineStr">
